--- a/长龙航空-通讯录.xlsx
+++ b/长龙航空-通讯录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,103 +60,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>xieyl@cares.sh.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhoushun@linkstec.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanghc@linkstec.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chenzt@linkstec.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qins@linkstec.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方燕燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fangyy@linkstec.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏尔国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sueg@cares.sh.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌志苏州美工人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐娇娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xujj@cares.sh.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯亚美工人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张金洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangjy@linkstec.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangyang@cares.sh.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王雪磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>nizq@cares.sh.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xieyl@cares.sh.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhoushun@linkstec.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhanghc@linkstec.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chenzt@linkstec.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qins@linkstec.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方燕燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fangyy@linkstec.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏尔国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sueg@cares.sh.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王雷磊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐明明</t>
+    <t>liyi@cares.sh.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangpeng@cares.sh.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangxl@cares.sh.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xumingming1@linkstec.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌志苏州美工人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐娇娇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xujj@cares.sh.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯亚美工人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待补充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张金洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangjy@linkstec.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yangyang@cares.sh.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,86 +280,23 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -406,6 +363,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -440,6 +398,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,24 +574,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="35.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,23 +606,29 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>13817935550</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>87760081</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -671,13 +637,14 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>13585958027</v>
@@ -686,13 +653,16 @@
         <v>87922459</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9270</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>13524211563</v>
@@ -701,13 +671,14 @@
         <v>916776465</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <v>15216626863</v>
@@ -715,10 +686,13 @@
       <c r="D7" s="2">
         <v>419857869</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,11 +703,12 @@
         <v>876311</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -744,11 +719,12 @@
         <v>272840124</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -759,11 +735,12 @@
         <v>645716012</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -774,13 +751,14 @@
         <v>1095128216</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C12" s="2">
         <v>15601604506</v>
@@ -789,54 +767,66 @@
         <v>420989489</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
         <v>871943801</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2">
         <v>13916928262</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9327</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13818518464</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45433486</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C16" s="2">
         <v>15821947260</v>
@@ -845,65 +835,84 @@
         <v>12153591</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="2">
+        <v>13818736002</v>
+      </c>
+      <c r="D17" s="2">
+        <v>449331907</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="G17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -920,8 +929,11 @@
     <hyperlink ref="E14" r:id="rId10"/>
     <hyperlink ref="E16" r:id="rId11"/>
     <hyperlink ref="E6" r:id="rId12"/>
+    <hyperlink ref="E17" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E7" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId16"/>
 </worksheet>
 </file>